--- a/Support/AutomationData.xlsx
+++ b/Support/AutomationData.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login Credentials" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="XML Data" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Email Credentials" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="CreateJob" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t xml:space="preserve">FIELD</t>
   </si>
@@ -109,6 +110,87 @@
   </si>
   <si>
     <t xml:space="preserve">abhijeet.chitransh@mediaagility.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstValue1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstValue2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstValue3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstValue4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstValue5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstValue6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstValue7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstValue8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstValue9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SecondValue1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SecondValue2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SecondValue3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SecondValue4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SecondValue5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SecondValue6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SecondValue7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SecondValue8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SecondValue9</t>
   </si>
 </sst>
 </file>
@@ -448,7 +530,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -544,7 +626,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="27.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="70.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="10" width="16.74"/>
   </cols>
@@ -710,4 +792,118 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.3"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>